--- a/Docs/MonsterStatus.xlsx
+++ b/Docs/MonsterStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC28E18-B4AA-8E4A-B5DE-A4252F2CCD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690A3AC-99E3-0C41-B2BA-9E03BF1DD295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="2" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 0" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49571E-AAAE-6949-BB21-9F9C5343F305}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337DEDC-8E51-7947-A718-51C45C28FCC7}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1156,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/MonsterStatus.xlsx
+++ b/Docs/MonsterStatus.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphapo/Desktop/UnityProject/2024_01_A_TeamProject/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitFork\2024_01_A_TeamProject\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690A3AC-99E3-0C41-B2BA-9E03BF1DD295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" activeTab="2" xr2:uid="{3D0208CF-FB2A-DB42-B6D0-7B43D6D6B88C}"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="28305" windowHeight="16935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter 0" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="3" r:id="rId2"/>
     <sheet name="Chapter 2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,16 +471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49571E-AAAE-6949-BB21-9F9C5343F305}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -564,16 +563,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2AF673-7853-FD47-A2E1-46ADAFA4D270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -611,7 +610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -649,7 +648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -687,7 +686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -725,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -760,10 +759,10 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -798,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -808,16 +807,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8337DEDC-8E51-7947-A718-51C45C28FCC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -855,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -893,7 +892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -931,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -969,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
